--- a/ТВИМС/Lab01/ТВИМС_Lab1.xlsx
+++ b/ТВИМС/Lab01/ТВИМС_Lab1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="24240" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="24240" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Нормальное распределение + смещ" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Нормальное распределение + смещ'!$5:$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="161">
   <si>
     <t>отличное</t>
   </si>
@@ -675,6 +674,69 @@
       <t>, за л</t>
     </r>
   </si>
+  <si>
+    <t>Стандартная ошибка</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение</t>
+  </si>
+  <si>
+    <t>Дисперсия выборки</t>
+  </si>
+  <si>
+    <t>Эксцесс</t>
+  </si>
+  <si>
+    <t>Асимметричность</t>
+  </si>
+  <si>
+    <t>Интервал</t>
+  </si>
+  <si>
+    <t>Минимум</t>
+  </si>
+  <si>
+    <t>Максимум</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Счет</t>
+  </si>
+  <si>
+    <t>Квартиль 1</t>
+  </si>
+  <si>
+    <t>Квартиль 3</t>
+  </si>
+  <si>
+    <t>2Q ящик</t>
+  </si>
+  <si>
+    <t>3Q ящик</t>
+  </si>
+  <si>
+    <t>Усы-</t>
+  </si>
+  <si>
+    <t>Усы+</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">удовлетворительное </t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Усы- (длина)</t>
+  </si>
+  <si>
+    <t>Усы+ (длина)</t>
+  </si>
 </sst>
 </file>
 
@@ -691,7 +753,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -802,6 +864,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -811,7 +879,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -878,6 +946,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -893,7 +981,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -981,6 +1069,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,6 +1090,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="2"/>
@@ -1011,7 +1107,92 @@
     <cellStyle name="Денежный" xfId="7" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1214,24 +1395,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="184314496"/>
-        <c:axId val="184328576"/>
+        <c:axId val="118797824"/>
+        <c:axId val="118799360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184314496"/>
+        <c:axId val="118797824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184328576"/>
+        <c:crossAx val="118799360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184328576"/>
+        <c:axId val="118799360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1420,245 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184314496"/>
+        <c:crossAx val="118797824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Лук репчатый (руб/кг)</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Описательные характеристики'!$I$2:$AH$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Описательные характеристики'!$I$25:$AH$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.86</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>27.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="120011008"/>
+        <c:axId val="120016896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="120011008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120016896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120016896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120011008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,24 +1875,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="184508800"/>
-        <c:axId val="184510336"/>
+        <c:axId val="118856704"/>
+        <c:axId val="118866688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184508800"/>
+        <c:axId val="118856704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184510336"/>
+        <c:crossAx val="118866688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184510336"/>
+        <c:axId val="118866688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1900,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184508800"/>
+        <c:crossAx val="118856704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1494,7 +1913,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1504,9 +1923,1423 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
+    <c:plotArea>
       <c:layout/>
-    </c:title>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Квартиль 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$P$69:$T$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.4300255399645199</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.460084302849854</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.255334717797002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7312514080944199</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$P$47:$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>отличное</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>хорошее</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>удовлетворительное </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>плохое</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>очень плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$P$62:$T$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4300255399645199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.123550562871998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.296134720439298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7312514080944199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$P$47:$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>отличное</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>хорошее</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>удовлетворительное </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>плохое</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>очень плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$P$65:$T$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5667743141683204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5184884396760054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5225547722786033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17884513210416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18104922384355601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$P$70:$T$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.2504805353545692</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.460084302849857</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.255334717797005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.04269870820292</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.68559718398506686</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$P$47:$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>отличное</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>хорошее</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>удовлетворительное </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>плохое</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>очень плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$P$66:$T$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2668793760680597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1215677622238971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6476683729193979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5162873400311203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27601556547982198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:overlap val="100"/>
+        <c:axId val="130852352"/>
+        <c:axId val="135320704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="130852352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135320704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135320704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130852352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Квартиль 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$P$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>4.4300255399645199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$P$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отличное</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$P$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.4300255399645199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdDev"/>
+            <c:val val="1"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$P$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отличное</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$P$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5667743141683204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$P$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.2504805353545692</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$P$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отличное</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$P$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.2668793760680597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="130820352"/>
+        <c:axId val="130863488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="130820352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130863488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130863488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130820352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Квартиль 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$Q$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>14.460084302849854</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$Q$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>хорошее</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$Q$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42.123550562871998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$Q$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>хорошее</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$Q$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5184884396760054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$Q$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>14.460084302849857</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$Q$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>хорошее</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$Q$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.1215677622238971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="164967552"/>
+        <c:axId val="164969088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164967552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164969088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164969088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164967552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Квартиль 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$R$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>15.255334717797002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$R$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>удовлетворительное </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$R$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37.296134720439298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$R$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>удовлетворительное </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$R$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5225547722786033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$R$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>15.255334717797005</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$R$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>удовлетворительное </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$R$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.6476683729193979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="164467072"/>
+        <c:axId val="148856832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164467072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148856832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148856832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164467072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Квартиль 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$S$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.7312514080944199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$S$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$S$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.7312514080944199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$S$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.17884513210416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$S$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>4.04269870820292</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$S$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$S$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5162873400311203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="137279360"/>
+        <c:axId val="137456640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="137279360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137456640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137456640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137279360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Квартиль 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$T$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>очень плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$T$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>очень плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$T$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.18104922384355601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3Q ящик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Нормальное распределение + смещ'!$T$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.68559718398506686</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Нормальное распределение + смещ'!$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>очень плохое</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нормальное распределение + смещ'!$T$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.27601556547982198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="175455616"/>
+        <c:axId val="175463808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="175455616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175463808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="175463808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175455616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1605,25 +3438,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="184526336"/>
-        <c:axId val="184527872"/>
+        <c:axId val="119484800"/>
+        <c:axId val="119486336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184526336"/>
+        <c:axId val="119484800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184527872"/>
+        <c:crossAx val="119486336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184527872"/>
+        <c:axId val="119486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,258 +3464,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184526336"/>
+        <c:crossAx val="119484800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Лук репчатый (руб/кг)</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Описательные характеристики'!$I$2:$AH$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Описательные характеристики'!$I$25:$AH$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>7.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.72</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.88</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.86</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>27.41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.03</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.36</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26.47</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26.41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.31</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26.41</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.95</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.15</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="185233408"/>
-        <c:axId val="185234944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="185233408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185234944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="185234944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185233408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1893,15 +3487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9523</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115958</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1945,6 +3539,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>287431</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>163046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>868456</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>175373</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280149</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1355911</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1580029</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1624853</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Диаграмма 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2311,10 +4085,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -2322,23 +4097,34 @@
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="4" customWidth="1"/>
-    <col min="4" max="8" width="7.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="7.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" customWidth="1"/>
-    <col min="21" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" customWidth="1"/>
+    <col min="18" max="18" width="33" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="1"/>
@@ -2368,37 +4154,37 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:25" ht="97.5" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" ht="24" customHeight="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>2</v>
+      <c r="F6" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>3</v>
@@ -2413,8 +4199,8 @@
       <c r="O6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>2</v>
+      <c r="P6" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="Q6" s="15" t="s">
         <v>3</v>
@@ -3417,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15">
+    <row r="33" spans="1:20" ht="15">
       <c r="A33" s="5"/>
       <c r="B33" s="8" t="s">
         <v>31</v>
@@ -3441,7 +5227,7 @@
         <v>1.0636377101974199</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15">
+    <row r="34" spans="1:20" ht="15">
       <c r="A34" s="5"/>
       <c r="B34" s="8" t="s">
         <v>32</v>
@@ -3465,7 +5251,7 @@
         <v>0.40501098712082301</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15">
+    <row r="35" spans="1:20" ht="15">
       <c r="A35" s="5"/>
       <c r="B35" s="8" t="s">
         <v>33</v>
@@ -3489,7 +5275,7 @@
         <v>6.7533162468634195E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15">
+    <row r="36" spans="1:20" ht="15">
       <c r="A36" s="5"/>
       <c r="B36" s="8" t="s">
         <v>34</v>
@@ -3516,7 +5302,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15">
+    <row r="37" spans="1:20" ht="15">
       <c r="A37" s="5"/>
       <c r="B37" s="8" t="s">
         <v>35</v>
@@ -3539,8 +5325,11 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="15">
+      <c r="N37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15">
       <c r="A38" s="5"/>
       <c r="B38" s="8" t="s">
         <v>36</v>
@@ -3564,7 +5353,7 @@
         <v>8.5995058550746101E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15">
+    <row r="39" spans="1:20" ht="15">
       <c r="A39" s="5"/>
       <c r="B39" s="8" t="s">
         <v>37</v>
@@ -3588,7 +5377,7 @@
         <v>0.286249086706242</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15">
+    <row r="40" spans="1:20" ht="15">
       <c r="A40" s="5"/>
       <c r="B40" s="8" t="s">
         <v>38</v>
@@ -3612,7 +5401,7 @@
         <v>0.116258185194794</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15">
+    <row r="41" spans="1:20" ht="15">
       <c r="A41" s="5"/>
       <c r="B41" s="8" t="s">
         <v>39</v>
@@ -3636,7 +5425,7 @@
         <v>2.0910052774953298</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15">
+    <row r="42" spans="1:20" ht="15">
       <c r="A42" s="5"/>
       <c r="B42" s="8" t="s">
         <v>40</v>
@@ -3660,7 +5449,7 @@
         <v>0.18764839524216601</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15">
+    <row r="43" spans="1:20" ht="15">
       <c r="A43" s="5"/>
       <c r="B43" s="8" t="s">
         <v>41</v>
@@ -3687,7 +5476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15">
+    <row r="44" spans="1:20" ht="15">
       <c r="A44" s="5"/>
       <c r="B44" s="8" t="s">
         <v>42</v>
@@ -3711,7 +5500,7 @@
         <v>0.14369839133039899</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15">
+    <row r="45" spans="1:20" ht="15">
       <c r="A45" s="5"/>
       <c r="B45" s="8" t="s">
         <v>43</v>
@@ -3735,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="22.5">
+    <row r="46" spans="1:20" ht="23.25" thickBot="1">
       <c r="A46" s="5"/>
       <c r="B46" s="9" t="s">
         <v>44</v>
@@ -3759,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="22.5">
+    <row r="47" spans="1:20" ht="22.5">
       <c r="A47" s="5"/>
       <c r="B47" s="9" t="s">
         <v>45</v>
@@ -3782,8 +5571,26 @@
       <c r="H47" s="7">
         <v>0.74166105775309599</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="22.5">
+      <c r="O47" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="P47" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R47" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="S47" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="22.5">
       <c r="A48" s="5"/>
       <c r="B48" s="9" t="s">
         <v>46</v>
@@ -3806,8 +5613,26 @@
       <c r="H48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15">
+      <c r="O48" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="P48" s="48">
+        <v>7.7229078501835318</v>
+      </c>
+      <c r="Q48" s="48">
+        <v>46.477993891898166</v>
+      </c>
+      <c r="R48" s="48">
+        <v>41.959111677198408</v>
+      </c>
+      <c r="S48" s="48">
+        <v>3.3669231727314841</v>
+      </c>
+      <c r="T48" s="48">
+        <v>0.47306340798840768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15">
       <c r="A49" s="5"/>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -3830,8 +5655,26 @@
       <c r="H49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15">
+      <c r="O49" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" s="48">
+        <v>0.56865488737731085</v>
+      </c>
+      <c r="Q49" s="48">
+        <v>1.0652230080603209</v>
+      </c>
+      <c r="R49" s="48">
+        <v>1.2477668185872064</v>
+      </c>
+      <c r="S49" s="48">
+        <v>0.26851873265679921</v>
+      </c>
+      <c r="T49" s="48">
+        <v>0.10082007890209868</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15">
       <c r="A50" s="5"/>
       <c r="B50" s="8" t="s">
         <v>48</v>
@@ -3854,8 +5697,26 @@
       <c r="H50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15">
+      <c r="O50" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="P50" s="48">
+        <v>5.9967998541328402</v>
+      </c>
+      <c r="Q50" s="48">
+        <v>46.642039002548003</v>
+      </c>
+      <c r="R50" s="48">
+        <v>42.818689492717901</v>
+      </c>
+      <c r="S50" s="48">
+        <v>2.9100965401985799</v>
+      </c>
+      <c r="T50" s="48">
+        <v>0.18104922384355601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15">
       <c r="A51" s="5"/>
       <c r="B51" s="9" t="s">
         <v>49</v>
@@ -3878,8 +5739,26 @@
       <c r="H51" s="7">
         <v>0.143360778319153</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15">
+      <c r="O51" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R51" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S51" s="48">
+        <v>0</v>
+      </c>
+      <c r="T51" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15">
       <c r="A52" s="5"/>
       <c r="B52" s="9" t="s">
         <v>50</v>
@@ -3902,8 +5781,26 @@
       <c r="H52" s="7">
         <v>0.46910280116466602</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15">
+      <c r="O52" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" s="48">
+        <v>5.2427390150319972</v>
+      </c>
+      <c r="Q52" s="48">
+        <v>9.8208708797433886</v>
+      </c>
+      <c r="R52" s="48">
+        <v>11.503841656299658</v>
+      </c>
+      <c r="S52" s="48">
+        <v>2.4756203933453036</v>
+      </c>
+      <c r="T52" s="48">
+        <v>0.92951519962567541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15">
       <c r="A53" s="5"/>
       <c r="B53" s="9" t="s">
         <v>51</v>
@@ -3926,8 +5823,26 @@
       <c r="H53" s="7">
         <v>0.32145740379653598</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15">
+      <c r="O53" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="P53" s="48">
+        <v>27.486312379738678</v>
+      </c>
+      <c r="Q53" s="48">
+        <v>96.449504836591672</v>
+      </c>
+      <c r="R53" s="48">
+        <v>132.33837285321525</v>
+      </c>
+      <c r="S53" s="48">
+        <v>6.1286963319471548</v>
+      </c>
+      <c r="T53" s="48">
+        <v>0.86399850633515929</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15">
       <c r="A54" s="5"/>
       <c r="B54" s="9" t="s">
         <v>52</v>
@@ -3950,8 +5865,26 @@
       <c r="H54" s="7">
         <v>2.1354315533082799E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15">
+      <c r="O54" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="P54" s="48">
+        <v>4.6776391159680184</v>
+      </c>
+      <c r="Q54" s="48">
+        <v>3.2686188238525014</v>
+      </c>
+      <c r="R54" s="48">
+        <v>3.3678240092699858</v>
+      </c>
+      <c r="S54" s="48">
+        <v>3.2806730409429297</v>
+      </c>
+      <c r="T54" s="48">
+        <v>22.759266515023839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="15">
       <c r="A55" s="5"/>
       <c r="B55" s="9" t="s">
         <v>53</v>
@@ -3974,8 +5907,26 @@
       <c r="H55" s="7">
         <v>7.5873788964712197E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15">
+      <c r="O55" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="P55" s="48">
+        <v>1.9057405385297426</v>
+      </c>
+      <c r="Q55" s="48">
+        <v>-0.78569442358417541</v>
+      </c>
+      <c r="R55" s="48">
+        <v>-0.25962173345728007</v>
+      </c>
+      <c r="S55" s="48">
+        <v>1.4938865604215998</v>
+      </c>
+      <c r="T55" s="48">
+        <v>4.2588781076820439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15">
       <c r="A56" s="5"/>
       <c r="B56" s="9" t="s">
         <v>54</v>
@@ -3998,8 +5949,26 @@
       <c r="H56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15">
+      <c r="O56" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" s="48">
+        <v>30.0129267609558</v>
+      </c>
+      <c r="Q56" s="48">
+        <v>61.320809613481138</v>
+      </c>
+      <c r="R56" s="48">
+        <v>80.544207726781565</v>
+      </c>
+      <c r="S56" s="48">
+        <v>13.7599022404897</v>
+      </c>
+      <c r="T56" s="48">
+        <v>6.5087604860414796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15">
       <c r="A57" s="5"/>
       <c r="B57" s="9" t="s">
         <v>55</v>
@@ -4022,8 +5991,26 @@
       <c r="H57" s="7">
         <v>1.65993936241787</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15">
+      <c r="O57" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="P57" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="48">
+        <v>6.9238028968090601</v>
+      </c>
+      <c r="R57" s="48">
+        <v>3.2145173405016298</v>
+      </c>
+      <c r="S57" s="48">
+        <v>0</v>
+      </c>
+      <c r="T57" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15">
       <c r="A58" s="5"/>
       <c r="B58" s="9" t="s">
         <v>56</v>
@@ -4046,8 +6033,26 @@
       <c r="H58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15">
+      <c r="O58" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="P58" s="48">
+        <v>30.0129267609558</v>
+      </c>
+      <c r="Q58" s="48">
+        <v>68.244612510290196</v>
+      </c>
+      <c r="R58" s="48">
+        <v>83.758725067283194</v>
+      </c>
+      <c r="S58" s="48">
+        <v>13.7599022404897</v>
+      </c>
+      <c r="T58" s="48">
+        <v>6.5087604860414796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15">
       <c r="A59" s="5"/>
       <c r="B59" s="9" t="s">
         <v>57</v>
@@ -4070,8 +6075,26 @@
       <c r="H59" s="7">
         <v>0.307910664865784</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15">
+      <c r="O59" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="P59" s="48">
+        <v>656.44716726560023</v>
+      </c>
+      <c r="Q59" s="48">
+        <v>3950.6294808113439</v>
+      </c>
+      <c r="R59" s="48">
+        <v>3566.5244925618649</v>
+      </c>
+      <c r="S59" s="48">
+        <v>286.18846968217616</v>
+      </c>
+      <c r="T59" s="48">
+        <v>40.210389679014654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" thickBot="1">
       <c r="A60" s="5"/>
       <c r="B60" s="9" t="s">
         <v>58</v>
@@ -4094,8 +6117,26 @@
       <c r="H60" s="7">
         <v>0.45706478932337802</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15">
+      <c r="O60" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="P60" s="49">
+        <v>85</v>
+      </c>
+      <c r="Q60" s="49">
+        <v>85</v>
+      </c>
+      <c r="R60" s="49">
+        <v>85</v>
+      </c>
+      <c r="S60" s="49">
+        <v>85</v>
+      </c>
+      <c r="T60" s="49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15">
       <c r="A61" s="5"/>
       <c r="B61" s="9" t="s">
         <v>59</v>
@@ -4119,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15">
+    <row r="62" spans="1:20" ht="15">
       <c r="A62" s="5"/>
       <c r="B62" s="9" t="s">
         <v>60</v>
@@ -4142,8 +6183,31 @@
       <c r="H62" s="7">
         <v>0.30913775370583801</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15">
+      <c r="O62" t="s">
+        <v>150</v>
+      </c>
+      <c r="P62">
+        <f>QUARTILE(D7:D91,1)</f>
+        <v>4.4300255399645199</v>
+      </c>
+      <c r="Q62">
+        <f>QUARTILE(E7:E91,1)</f>
+        <v>42.123550562871998</v>
+      </c>
+      <c r="R62">
+        <f>QUARTILE(F7:F91,1)</f>
+        <v>37.296134720439298</v>
+      </c>
+      <c r="S62">
+        <f>QUARTILE(G7:G91,1)</f>
+        <v>1.7312514080944199</v>
+      </c>
+      <c r="T62">
+        <f>QUARTILE(H7:H91,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15">
       <c r="A63" s="5"/>
       <c r="B63" s="9" t="s">
         <v>61</v>
@@ -4166,8 +6230,31 @@
       <c r="H63" s="7">
         <v>2.3844843622538798</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15">
+      <c r="O63" t="s">
+        <v>151</v>
+      </c>
+      <c r="P63">
+        <f>QUARTILE(D7:D91,3)</f>
+        <v>9.2636792302008999</v>
+      </c>
+      <c r="Q63">
+        <f>QUARTILE(E7:E91,3)</f>
+        <v>51.7636067647719</v>
+      </c>
+      <c r="R63">
+        <f>QUARTILE(F7:F91,3)</f>
+        <v>47.466357865637299</v>
+      </c>
+      <c r="S63">
+        <f>QUARTILE(G7:G91,3)</f>
+        <v>4.4263838802297002</v>
+      </c>
+      <c r="T63">
+        <f>QUARTILE(H7:H91,3)</f>
+        <v>0.45706478932337802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="15">
       <c r="A64" s="5"/>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -4190,8 +6277,31 @@
       <c r="H64" s="7">
         <v>9.0697330539839693E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15">
+      <c r="O64" t="s">
+        <v>156</v>
+      </c>
+      <c r="P64">
+        <f>P63-P62</f>
+        <v>4.83365369023638</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ref="Q64:T64" si="3">Q63-Q62</f>
+        <v>9.6400562018999025</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="3"/>
+        <v>10.170223145198001</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="3"/>
+        <v>2.6951324721352803</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="3"/>
+        <v>0.45706478932337802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="15">
       <c r="A65" s="5"/>
       <c r="B65" s="9" t="s">
         <v>63</v>
@@ -4214,8 +6324,31 @@
       <c r="H65" s="7">
         <v>0.197492022263105</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15">
+      <c r="O65" t="s">
+        <v>152</v>
+      </c>
+      <c r="P65">
+        <f>P50-P62</f>
+        <v>1.5667743141683204</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ref="Q65:T65" si="4">Q50-Q62</f>
+        <v>4.5184884396760054</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="4"/>
+        <v>5.5225547722786033</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="4"/>
+        <v>1.17884513210416</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="4"/>
+        <v>0.18104922384355601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="15">
       <c r="A66" s="5"/>
       <c r="B66" s="9" t="s">
         <v>64</v>
@@ -4238,8 +6371,31 @@
       <c r="H66" s="7">
         <v>0.48386440357406102</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="22.5">
+      <c r="O66" t="s">
+        <v>153</v>
+      </c>
+      <c r="P66">
+        <f>P63-P50</f>
+        <v>3.2668793760680597</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:T66" si="5">Q63-Q50</f>
+        <v>5.1215677622238971</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="5"/>
+        <v>4.6476683729193979</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="5"/>
+        <v>1.5162873400311203</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="5"/>
+        <v>0.27601556547982198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="22.5">
       <c r="A67" s="5"/>
       <c r="B67" s="9" t="s">
         <v>65</v>
@@ -4262,8 +6418,31 @@
       <c r="H67" s="7">
         <v>0.117304505098866</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="22.5">
+      <c r="O67" t="s">
+        <v>154</v>
+      </c>
+      <c r="P67">
+        <f>MAX(P57,P62-1.5*P64)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:T67" si="6">MAX(Q57,Q62-1.5*Q64)</f>
+        <v>27.663466260022144</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="6"/>
+        <v>22.040800002642296</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="22.5">
       <c r="A68" s="5"/>
       <c r="B68" s="9" t="s">
         <v>66</v>
@@ -4286,8 +6465,31 @@
       <c r="H68" s="7">
         <v>3.0113411943832501E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15">
+      <c r="O68" t="s">
+        <v>155</v>
+      </c>
+      <c r="P68">
+        <f>MIN(P63+1.5*P64,P58)</f>
+        <v>16.514159765555469</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:T68" si="7">MIN(Q63+1.5*Q64,Q58)</f>
+        <v>66.223691067621758</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="7"/>
+        <v>62.721692583434304</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="7"/>
+        <v>8.4690825884326202</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="7"/>
+        <v>1.1426619733084449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="15">
       <c r="A69" s="5"/>
       <c r="B69" s="9" t="s">
         <v>67</v>
@@ -4310,8 +6512,31 @@
       <c r="H69" s="7">
         <v>0.42288757785227599</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15">
+      <c r="O69" t="s">
+        <v>159</v>
+      </c>
+      <c r="P69">
+        <f>P62-MAX(P57,P62-1.5*P64)</f>
+        <v>4.4300255399645199</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ref="Q69:T69" si="8">Q62-MAX(Q57,Q62-1.5*Q64)</f>
+        <v>14.460084302849854</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="8"/>
+        <v>15.255334717797002</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="8"/>
+        <v>1.7312514080944199</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15">
       <c r="A70" s="5"/>
       <c r="B70" s="9" t="s">
         <v>68</v>
@@ -4334,8 +6559,31 @@
       <c r="H70" s="7">
         <v>0.12740651470179901</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15">
+      <c r="O70" t="s">
+        <v>160</v>
+      </c>
+      <c r="P70">
+        <f>MIN(P63+1.5*P64,P58)-P63</f>
+        <v>7.2504805353545692</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ref="Q70:T70" si="9">MIN(Q63+1.5*Q64,Q58)-Q63</f>
+        <v>14.460084302849857</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="9"/>
+        <v>15.255334717797005</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="9"/>
+        <v>4.04269870820292</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="9"/>
+        <v>0.68559718398506686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15">
       <c r="A71" s="5"/>
       <c r="B71" s="9" t="s">
         <v>69</v>
@@ -4359,7 +6607,7 @@
         <v>0.237733068515454</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15">
+    <row r="72" spans="1:20" ht="15">
       <c r="A72" s="5"/>
       <c r="B72" s="9" t="s">
         <v>70</v>
@@ -4383,7 +6631,7 @@
         <v>0.60439971946136894</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15">
+    <row r="73" spans="1:20" ht="15">
       <c r="A73" s="5"/>
       <c r="B73" s="9" t="s">
         <v>71</v>
@@ -4407,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15">
+    <row r="74" spans="1:20" ht="15">
       <c r="A74" s="5"/>
       <c r="B74" s="9" t="s">
         <v>72</v>
@@ -4431,7 +6679,7 @@
         <v>0.96809155820012005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15">
+    <row r="75" spans="1:20" ht="15">
       <c r="A75" s="5"/>
       <c r="B75" s="9" t="s">
         <v>73</v>
@@ -4455,7 +6703,7 @@
         <v>0.41564762320048498</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15">
+    <row r="76" spans="1:20" ht="15">
       <c r="A76" s="5"/>
       <c r="B76" s="9" t="s">
         <v>74</v>
@@ -4479,7 +6727,7 @@
         <v>0.18104922384355601</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15">
+    <row r="77" spans="1:20" ht="15">
       <c r="A77" s="5"/>
       <c r="B77" s="9" t="s">
         <v>75</v>
@@ -4503,7 +6751,7 @@
         <v>0.72673954785916595</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15">
+    <row r="78" spans="1:20" ht="15">
       <c r="A78" s="5"/>
       <c r="B78" s="9" t="s">
         <v>76</v>
@@ -4527,7 +6775,7 @@
         <v>0.139081677818468</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15">
+    <row r="79" spans="1:20" ht="15">
       <c r="A79" s="5"/>
       <c r="B79" s="9" t="s">
         <v>77</v>
@@ -4551,7 +6799,7 @@
         <v>0.39785846625602</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15">
+    <row r="80" spans="1:20" ht="15">
       <c r="A80" s="5"/>
       <c r="B80" s="9" t="s">
         <v>78</v>
@@ -4930,11 +7178,11 @@
         <v>5.9967998541328402</v>
       </c>
       <c r="E96" s="18">
-        <f t="shared" ref="E96:H96" si="3">MEDIAN(E7:E91)</f>
+        <f>MEDIAN(E7:E91)</f>
         <v>46.642039002548003</v>
       </c>
       <c r="F96" s="18">
-        <f t="shared" si="3"/>
+        <f>MEDIAN(F7:F91)</f>
         <v>42.818689492717901</v>
       </c>
       <c r="G96" s="18">
@@ -4942,7 +7190,7 @@
         <v>2.9100965401985799</v>
       </c>
       <c r="H96" s="18">
-        <f t="shared" si="3"/>
+        <f>MEDIAN(H7:H91)</f>
         <v>0.18104922384355601</v>
       </c>
     </row>
@@ -4956,19 +7204,19 @@
         <v>7.7229078501835318</v>
       </c>
       <c r="E97" s="18">
-        <f t="shared" ref="E97:H97" si="4">AVERAGE(E7:E91)</f>
+        <f>AVERAGE(E7:E91)</f>
         <v>46.477993891898166</v>
       </c>
       <c r="F97" s="18">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(F7:F91)</f>
         <v>41.959111677198408</v>
       </c>
       <c r="G97" s="18">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(G7:G91)</f>
         <v>3.3669231727314841</v>
       </c>
       <c r="H97" s="18">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(H7:H91)</f>
         <v>0.47306340798840768</v>
       </c>
     </row>
@@ -4979,7 +7227,13 @@
       <c r="A99" s="5"/>
     </row>
     <row r="100" spans="1:8" ht="15">
-      <c r="A100" s="6"/>
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" ht="15">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" ht="15">
+      <c r="A102" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4990,6 +7244,36 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G4:H4"/>
   </mergeCells>
+  <conditionalFormatting sqref="D7:D91">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="notBetween">
+      <formula>$P$67</formula>
+      <formula>$P$68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E91">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="notBetween">
+      <formula>$Q$67</formula>
+      <formula>$Q$68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F91">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notBetween">
+      <formula>$R$67</formula>
+      <formula>$R$68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G91">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
+      <formula>$S$67</formula>
+      <formula>$S$68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H91">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
+      <formula>$T$67</formula>
+      <formula>$T$68</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O43" r:id="rId1"/>
   </hyperlinks>
@@ -5129,7 +7413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -5139,21 +7423,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
